--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.8848624131161</v>
+        <v>29.68085433333333</v>
       </c>
       <c r="H2">
-        <v>27.8848624131161</v>
+        <v>89.042563</v>
       </c>
       <c r="I2">
-        <v>0.6632681959010897</v>
+        <v>0.6679377898069131</v>
       </c>
       <c r="J2">
-        <v>0.6632681959010897</v>
+        <v>0.7452875499674176</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.5601922187134</v>
+        <v>39.72440700000001</v>
       </c>
       <c r="N2">
-        <v>39.5601922187134</v>
+        <v>119.173221</v>
       </c>
       <c r="O2">
-        <v>0.4723040802864625</v>
+        <v>0.4718104890356355</v>
       </c>
       <c r="P2">
-        <v>0.4723040802864625</v>
+        <v>0.5693086397548175</v>
       </c>
       <c r="Q2">
-        <v>1103.130517055249</v>
+        <v>1179.054337645047</v>
       </c>
       <c r="R2">
-        <v>1103.130517055249</v>
+        <v>10611.48903880542</v>
       </c>
       <c r="S2">
-        <v>0.3132642752483254</v>
+        <v>0.3151400552541812</v>
       </c>
       <c r="T2">
-        <v>0.3132642752483254</v>
+        <v>0.4242986412981511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.8848624131161</v>
+        <v>29.68085433333333</v>
       </c>
       <c r="H3">
-        <v>27.8848624131161</v>
+        <v>89.042563</v>
       </c>
       <c r="I3">
-        <v>0.6632681959010897</v>
+        <v>0.6679377898069131</v>
       </c>
       <c r="J3">
-        <v>0.6632681959010897</v>
+        <v>0.7452875499674176</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.997556236255129</v>
+        <v>1.132676333333333</v>
       </c>
       <c r="N3">
-        <v>0.997556236255129</v>
+        <v>3.398029</v>
       </c>
       <c r="O3">
-        <v>0.01190969644671324</v>
+        <v>0.01345290251278239</v>
       </c>
       <c r="P3">
-        <v>0.01190969644671324</v>
+        <v>0.01623290242224319</v>
       </c>
       <c r="Q3">
-        <v>27.81671839732021</v>
+        <v>33.61880125648078</v>
       </c>
       <c r="R3">
-        <v>27.81671839732021</v>
+        <v>302.569211308327</v>
       </c>
       <c r="S3">
-        <v>0.007899322875941112</v>
+        <v>0.00898570197087574</v>
       </c>
       <c r="T3">
-        <v>0.007899322875941112</v>
+        <v>0.01209818007513378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.8848624131161</v>
+        <v>29.68085433333333</v>
       </c>
       <c r="H4">
-        <v>27.8848624131161</v>
+        <v>89.042563</v>
       </c>
       <c r="I4">
-        <v>0.6632681959010897</v>
+        <v>0.6679377898069131</v>
       </c>
       <c r="J4">
-        <v>0.6632681959010897</v>
+        <v>0.7452875499674176</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>43.2022567406658</v>
+        <v>0.05956966666666667</v>
       </c>
       <c r="N4">
-        <v>43.2022567406658</v>
+        <v>0.178709</v>
       </c>
       <c r="O4">
-        <v>0.5157862232668241</v>
+        <v>0.0007075144900637483</v>
       </c>
       <c r="P4">
-        <v>0.5157862232668241</v>
+        <v>0.0008537201298095625</v>
       </c>
       <c r="Q4">
-        <v>1204.688985149583</v>
+        <v>1.768078599018555</v>
       </c>
       <c r="R4">
-        <v>1204.688985149583</v>
+        <v>15.912707391167</v>
       </c>
       <c r="S4">
-        <v>0.3421045977768231</v>
+        <v>0.0004725756647495452</v>
       </c>
       <c r="T4">
-        <v>0.3421045977768231</v>
+        <v>0.0006362669839036346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.454825191139381</v>
+        <v>29.68085433333333</v>
       </c>
       <c r="H5">
-        <v>0.454825191139381</v>
+        <v>89.042563</v>
       </c>
       <c r="I5">
-        <v>0.01081845337832793</v>
+        <v>0.6679377898069131</v>
       </c>
       <c r="J5">
-        <v>0.01081845337832793</v>
+        <v>0.7452875499674176</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>39.5601922187134</v>
+        <v>0.02170333333333333</v>
       </c>
       <c r="N5">
-        <v>39.5601922187134</v>
+        <v>0.06511</v>
       </c>
       <c r="O5">
-        <v>0.4723040802864625</v>
+        <v>0.0002577725153632478</v>
       </c>
       <c r="P5">
-        <v>0.4723040802864625</v>
+        <v>0.0003110403933316207</v>
       </c>
       <c r="Q5">
-        <v>17.99297198738697</v>
+        <v>0.6441734752144445</v>
       </c>
       <c r="R5">
-        <v>17.99297198738697</v>
+        <v>5.79756127693</v>
       </c>
       <c r="S5">
-        <v>0.005109599672973148</v>
+        <v>0.0001721760041846963</v>
       </c>
       <c r="T5">
-        <v>0.005109599672973148</v>
+        <v>0.0002318145326870255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.454825191139381</v>
+        <v>29.68085433333333</v>
       </c>
       <c r="H6">
-        <v>0.454825191139381</v>
+        <v>89.042563</v>
       </c>
       <c r="I6">
-        <v>0.01081845337832793</v>
+        <v>0.6679377898069131</v>
       </c>
       <c r="J6">
-        <v>0.01081845337832793</v>
+        <v>0.7452875499674176</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.997556236255129</v>
+        <v>43.257328</v>
       </c>
       <c r="N6">
-        <v>0.997556236255129</v>
+        <v>86.514656</v>
       </c>
       <c r="O6">
-        <v>0.01190969644671324</v>
+        <v>0.513771321446155</v>
       </c>
       <c r="P6">
-        <v>0.01190969644671324</v>
+        <v>0.4132936972997982</v>
       </c>
       <c r="Q6">
-        <v>0.4537137058270206</v>
+        <v>1283.914451217221</v>
       </c>
       <c r="R6">
-        <v>0.4537137058270206</v>
+        <v>7703.486707303328</v>
       </c>
       <c r="S6">
-        <v>0.0001288444957588051</v>
+        <v>0.3431672809129219</v>
       </c>
       <c r="T6">
-        <v>0.0001288444957588051</v>
+        <v>0.3080226470775421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.454825191139381</v>
+        <v>0.5440106666666666</v>
       </c>
       <c r="H7">
-        <v>0.454825191139381</v>
+        <v>1.632032</v>
       </c>
       <c r="I7">
-        <v>0.01081845337832793</v>
+        <v>0.01224241318136986</v>
       </c>
       <c r="J7">
-        <v>0.01081845337832793</v>
+        <v>0.01366013162433818</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.2022567406658</v>
+        <v>39.72440700000001</v>
       </c>
       <c r="N7">
-        <v>43.2022567406658</v>
+        <v>119.173221</v>
       </c>
       <c r="O7">
-        <v>0.5157862232668241</v>
+        <v>0.4718104890356355</v>
       </c>
       <c r="P7">
-        <v>0.5157862232668241</v>
+        <v>0.5693086397548175</v>
       </c>
       <c r="Q7">
-        <v>19.64947467972594</v>
+        <v>21.610501135008</v>
       </c>
       <c r="R7">
-        <v>19.64947467972594</v>
+        <v>194.494510215072</v>
       </c>
       <c r="S7">
-        <v>0.005580009209595979</v>
+        <v>0.005776098950078423</v>
       </c>
       <c r="T7">
-        <v>0.005580009209595979</v>
+        <v>0.007776830953923734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.138583395750385</v>
+        <v>0.5440106666666666</v>
       </c>
       <c r="H8">
-        <v>0.138583395750385</v>
+        <v>1.632032</v>
       </c>
       <c r="I8">
-        <v>0.00329633897845483</v>
+        <v>0.01224241318136986</v>
       </c>
       <c r="J8">
-        <v>0.00329633897845483</v>
+        <v>0.01366013162433818</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.5601922187134</v>
+        <v>1.132676333333333</v>
       </c>
       <c r="N8">
-        <v>39.5601922187134</v>
+        <v>3.398029</v>
       </c>
       <c r="O8">
-        <v>0.4723040802864625</v>
+        <v>0.01345290251278239</v>
       </c>
       <c r="P8">
-        <v>0.4723040802864625</v>
+        <v>0.01623290242224319</v>
       </c>
       <c r="Q8">
-        <v>5.48238577420726</v>
+        <v>0.6161880072142222</v>
       </c>
       <c r="R8">
-        <v>5.48238577420726</v>
+        <v>5.545692064928</v>
       </c>
       <c r="S8">
-        <v>0.001556874349531526</v>
+        <v>0.0001646959910501709</v>
       </c>
       <c r="T8">
-        <v>0.001556874349531526</v>
+        <v>0.00022174358373288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.138583395750385</v>
+        <v>0.5440106666666666</v>
       </c>
       <c r="H9">
-        <v>0.138583395750385</v>
+        <v>1.632032</v>
       </c>
       <c r="I9">
-        <v>0.00329633897845483</v>
+        <v>0.01224241318136986</v>
       </c>
       <c r="J9">
-        <v>0.00329633897845483</v>
+        <v>0.01366013162433818</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.997556236255129</v>
+        <v>0.05956966666666667</v>
       </c>
       <c r="N9">
-        <v>0.997556236255129</v>
+        <v>0.178709</v>
       </c>
       <c r="O9">
-        <v>0.01190969644671324</v>
+        <v>0.0007075144900637483</v>
       </c>
       <c r="P9">
-        <v>0.01190969644671324</v>
+        <v>0.0008537201298095625</v>
       </c>
       <c r="Q9">
-        <v>0.1382447306722091</v>
+        <v>0.03240653407644444</v>
       </c>
       <c r="R9">
-        <v>0.1382447306722091</v>
+        <v>0.291658806688</v>
       </c>
       <c r="S9">
-        <v>3.925839661886585E-05</v>
+        <v>8.661684719166605E-06</v>
       </c>
       <c r="T9">
-        <v>3.925839661886585E-05</v>
+        <v>1.16619293435457E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.138583395750385</v>
+        <v>0.5440106666666666</v>
       </c>
       <c r="H10">
-        <v>0.138583395750385</v>
+        <v>1.632032</v>
       </c>
       <c r="I10">
-        <v>0.00329633897845483</v>
+        <v>0.01224241318136986</v>
       </c>
       <c r="J10">
-        <v>0.00329633897845483</v>
+        <v>0.01366013162433818</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>43.2022567406658</v>
+        <v>0.02170333333333333</v>
       </c>
       <c r="N10">
-        <v>43.2022567406658</v>
+        <v>0.06511</v>
       </c>
       <c r="O10">
-        <v>0.5157862232668241</v>
+        <v>0.0002577725153632478</v>
       </c>
       <c r="P10">
-        <v>0.5157862232668241</v>
+        <v>0.0003110403933316207</v>
       </c>
       <c r="Q10">
-        <v>5.987115443201427</v>
+        <v>0.01180684483555556</v>
       </c>
       <c r="R10">
-        <v>5.987115443201427</v>
+        <v>0.10626160352</v>
       </c>
       <c r="S10">
-        <v>0.001700206232304438</v>
+        <v>3.155757639877889E-06</v>
       </c>
       <c r="T10">
-        <v>0.001700206232304438</v>
+        <v>4.248852713395858E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.164357882411861</v>
+        <v>0.5440106666666666</v>
       </c>
       <c r="H11">
-        <v>0.164357882411861</v>
+        <v>1.632032</v>
       </c>
       <c r="I11">
-        <v>0.003909409863114916</v>
+        <v>0.01224241318136986</v>
       </c>
       <c r="J11">
-        <v>0.003909409863114916</v>
+        <v>0.01366013162433818</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>39.5601922187134</v>
+        <v>43.257328</v>
       </c>
       <c r="N11">
-        <v>39.5601922187134</v>
+        <v>86.514656</v>
       </c>
       <c r="O11">
-        <v>0.4723040802864625</v>
+        <v>0.513771321446155</v>
       </c>
       <c r="P11">
-        <v>0.4723040802864625</v>
+        <v>0.4132936972997982</v>
       </c>
       <c r="Q11">
-        <v>6.502029420873915</v>
+        <v>23.53244784349867</v>
       </c>
       <c r="R11">
-        <v>6.502029420873915</v>
+        <v>141.194687060992</v>
       </c>
       <c r="S11">
-        <v>0.001846430229861316</v>
+        <v>0.006289800797882218</v>
       </c>
       <c r="T11">
-        <v>0.001846430229861316</v>
+        <v>0.005645646304624623</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.164357882411861</v>
+        <v>0.19106</v>
       </c>
       <c r="H12">
-        <v>0.164357882411861</v>
+        <v>0.57318</v>
       </c>
       <c r="I12">
-        <v>0.003909409863114916</v>
+        <v>0.004299613235094395</v>
       </c>
       <c r="J12">
-        <v>0.003909409863114916</v>
+        <v>0.004797524953210573</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.997556236255129</v>
+        <v>39.72440700000001</v>
       </c>
       <c r="N12">
-        <v>0.997556236255129</v>
+        <v>119.173221</v>
       </c>
       <c r="O12">
-        <v>0.01190969644671324</v>
+        <v>0.4718104890356355</v>
       </c>
       <c r="P12">
-        <v>0.01190969644671324</v>
+        <v>0.5693086397548175</v>
       </c>
       <c r="Q12">
-        <v>0.1639562305776391</v>
+        <v>7.589745201420001</v>
       </c>
       <c r="R12">
-        <v>0.1639562305776391</v>
+        <v>68.30770681278001</v>
       </c>
       <c r="S12">
-        <v>4.655988475548543E-05</v>
+        <v>0.002028602623113978</v>
       </c>
       <c r="T12">
-        <v>4.655988475548543E-05</v>
+        <v>0.002731272405302106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.164357882411861</v>
+        <v>0.19106</v>
       </c>
       <c r="H13">
-        <v>0.164357882411861</v>
+        <v>0.57318</v>
       </c>
       <c r="I13">
-        <v>0.003909409863114916</v>
+        <v>0.004299613235094395</v>
       </c>
       <c r="J13">
-        <v>0.003909409863114916</v>
+        <v>0.004797524953210573</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>43.2022567406658</v>
+        <v>1.132676333333333</v>
       </c>
       <c r="N13">
-        <v>43.2022567406658</v>
+        <v>3.398029</v>
       </c>
       <c r="O13">
-        <v>0.5157862232668241</v>
+        <v>0.01345290251278239</v>
       </c>
       <c r="P13">
-        <v>0.5157862232668241</v>
+        <v>0.01623290242224319</v>
       </c>
       <c r="Q13">
-        <v>7.100631433309379</v>
+        <v>0.2164091402466667</v>
       </c>
       <c r="R13">
-        <v>7.100631433309379</v>
+        <v>1.94768226222</v>
       </c>
       <c r="S13">
-        <v>0.002016419748498114</v>
+        <v>5.784227769439383E-05</v>
       </c>
       <c r="T13">
-        <v>0.002016419748498114</v>
+        <v>7.787775443374405E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.3989805079328</v>
+        <v>0.19106</v>
       </c>
       <c r="H14">
-        <v>13.3989805079328</v>
+        <v>0.57318</v>
       </c>
       <c r="I14">
-        <v>0.3187076018790128</v>
+        <v>0.004299613235094395</v>
       </c>
       <c r="J14">
-        <v>0.3187076018790128</v>
+        <v>0.004797524953210573</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>39.5601922187134</v>
+        <v>0.05956966666666667</v>
       </c>
       <c r="N14">
-        <v>39.5601922187134</v>
+        <v>0.178709</v>
       </c>
       <c r="O14">
-        <v>0.4723040802864625</v>
+        <v>0.0007075144900637483</v>
       </c>
       <c r="P14">
-        <v>0.4723040802864625</v>
+        <v>0.0008537201298095625</v>
       </c>
       <c r="Q14">
-        <v>530.0662444286156</v>
+        <v>0.01138138051333333</v>
       </c>
       <c r="R14">
-        <v>530.0662444286156</v>
+        <v>0.10243242462</v>
       </c>
       <c r="S14">
-        <v>0.1505269007857712</v>
+        <v>3.042038665499154E-06</v>
       </c>
       <c r="T14">
-        <v>0.1505269007857712</v>
+        <v>4.095743625819546E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.3989805079328</v>
+        <v>0.19106</v>
       </c>
       <c r="H15">
-        <v>13.3989805079328</v>
+        <v>0.57318</v>
       </c>
       <c r="I15">
-        <v>0.3187076018790128</v>
+        <v>0.004299613235094395</v>
       </c>
       <c r="J15">
-        <v>0.3187076018790128</v>
+        <v>0.004797524953210573</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.997556236255129</v>
+        <v>0.02170333333333333</v>
       </c>
       <c r="N15">
-        <v>0.997556236255129</v>
+        <v>0.06511</v>
       </c>
       <c r="O15">
-        <v>0.01190969644671324</v>
+        <v>0.0002577725153632478</v>
       </c>
       <c r="P15">
-        <v>0.01190969644671324</v>
+        <v>0.0003110403933316207</v>
       </c>
       <c r="Q15">
-        <v>13.36623656514928</v>
+        <v>0.004146638866666667</v>
       </c>
       <c r="R15">
-        <v>13.36623656514928</v>
+        <v>0.0373197498</v>
       </c>
       <c r="S15">
-        <v>0.003795710793638977</v>
+        <v>1.108322118699394E-06</v>
       </c>
       <c r="T15">
-        <v>0.003795710793638977</v>
+        <v>1.492224048464882E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.3989805079328</v>
+        <v>0.19106</v>
       </c>
       <c r="H16">
-        <v>13.3989805079328</v>
+        <v>0.57318</v>
       </c>
       <c r="I16">
-        <v>0.3187076018790128</v>
+        <v>0.004299613235094395</v>
       </c>
       <c r="J16">
-        <v>0.3187076018790128</v>
+        <v>0.004797524953210573</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.2022567406658</v>
+        <v>43.257328</v>
       </c>
       <c r="N16">
-        <v>43.2022567406658</v>
+        <v>86.514656</v>
       </c>
       <c r="O16">
-        <v>0.5157862232668241</v>
+        <v>0.513771321446155</v>
       </c>
       <c r="P16">
-        <v>0.5157862232668241</v>
+        <v>0.4132936972997982</v>
       </c>
       <c r="Q16">
-        <v>578.8661959668894</v>
+        <v>8.26474508768</v>
       </c>
       <c r="R16">
-        <v>578.8661959668894</v>
+        <v>49.58847052608</v>
       </c>
       <c r="S16">
-        <v>0.1643849902996026</v>
+        <v>0.002209017973501825</v>
       </c>
       <c r="T16">
-        <v>0.1643849902996026</v>
+        <v>0.001982786825800439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.18507</v>
+      </c>
+      <c r="H17">
+        <v>0.55521</v>
+      </c>
+      <c r="I17">
+        <v>0.0041648143065996</v>
+      </c>
+      <c r="J17">
+        <v>0.00464711579132566</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>39.72440700000001</v>
+      </c>
+      <c r="N17">
+        <v>119.173221</v>
+      </c>
+      <c r="O17">
+        <v>0.4718104890356355</v>
+      </c>
+      <c r="P17">
+        <v>0.5693086397548175</v>
+      </c>
+      <c r="Q17">
+        <v>7.351796003490001</v>
+      </c>
+      <c r="R17">
+        <v>66.16616403141001</v>
+      </c>
+      <c r="S17">
+        <v>0.001965003074739369</v>
+      </c>
+      <c r="T17">
+        <v>0.002645643169942744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.18507</v>
+      </c>
+      <c r="H18">
+        <v>0.55521</v>
+      </c>
+      <c r="I18">
+        <v>0.0041648143065996</v>
+      </c>
+      <c r="J18">
+        <v>0.00464711579132566</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.132676333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.398029</v>
+      </c>
+      <c r="O18">
+        <v>0.01345290251278239</v>
+      </c>
+      <c r="P18">
+        <v>0.01623290242224319</v>
+      </c>
+      <c r="Q18">
+        <v>0.20962440901</v>
+      </c>
+      <c r="R18">
+        <v>1.88661968109</v>
+      </c>
+      <c r="S18">
+        <v>5.602884085052582E-05</v>
+      </c>
+      <c r="T18">
+        <v>7.543617718545488E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.18507</v>
+      </c>
+      <c r="H19">
+        <v>0.55521</v>
+      </c>
+      <c r="I19">
+        <v>0.0041648143065996</v>
+      </c>
+      <c r="J19">
+        <v>0.00464711579132566</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.05956966666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.178709</v>
+      </c>
+      <c r="O19">
+        <v>0.0007075144900637483</v>
+      </c>
+      <c r="P19">
+        <v>0.0008537201298095625</v>
+      </c>
+      <c r="Q19">
+        <v>0.01102455821</v>
+      </c>
+      <c r="R19">
+        <v>0.09922102389</v>
+      </c>
+      <c r="S19">
+        <v>2.946666470344019E-06</v>
+      </c>
+      <c r="T19">
+        <v>3.96733629661061E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.18507</v>
+      </c>
+      <c r="H20">
+        <v>0.55521</v>
+      </c>
+      <c r="I20">
+        <v>0.0041648143065996</v>
+      </c>
+      <c r="J20">
+        <v>0.00464711579132566</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02170333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.06511</v>
+      </c>
+      <c r="O20">
+        <v>0.0002577725153632478</v>
+      </c>
+      <c r="P20">
+        <v>0.0003110403933316207</v>
+      </c>
+      <c r="Q20">
+        <v>0.0040166359</v>
+      </c>
+      <c r="R20">
+        <v>0.0361497231</v>
+      </c>
+      <c r="S20">
+        <v>1.07357465983302E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.445440723591519E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.18507</v>
+      </c>
+      <c r="H21">
+        <v>0.55521</v>
+      </c>
+      <c r="I21">
+        <v>0.0041648143065996</v>
+      </c>
+      <c r="J21">
+        <v>0.00464711579132566</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>43.257328</v>
+      </c>
+      <c r="N21">
+        <v>86.514656</v>
+      </c>
+      <c r="O21">
+        <v>0.513771321446155</v>
+      </c>
+      <c r="P21">
+        <v>0.4132936972997982</v>
+      </c>
+      <c r="Q21">
+        <v>8.00563369296</v>
+      </c>
+      <c r="R21">
+        <v>48.03380215776</v>
+      </c>
+      <c r="S21">
+        <v>0.002139762149879528</v>
+      </c>
+      <c r="T21">
+        <v>0.001920623667177259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.83556</v>
+      </c>
+      <c r="H22">
+        <v>27.67112</v>
+      </c>
+      <c r="I22">
+        <v>0.311355369470023</v>
+      </c>
+      <c r="J22">
+        <v>0.231607677663708</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>39.72440700000001</v>
+      </c>
+      <c r="N22">
+        <v>119.173221</v>
+      </c>
+      <c r="O22">
+        <v>0.4718104890356355</v>
+      </c>
+      <c r="P22">
+        <v>0.5693086397548175</v>
+      </c>
+      <c r="Q22">
+        <v>549.60941651292</v>
+      </c>
+      <c r="R22">
+        <v>3297.65649907752</v>
+      </c>
+      <c r="S22">
+        <v>0.1469007291335226</v>
+      </c>
+      <c r="T22">
+        <v>0.1318562519274978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.83556</v>
+      </c>
+      <c r="H23">
+        <v>27.67112</v>
+      </c>
+      <c r="I23">
+        <v>0.311355369470023</v>
+      </c>
+      <c r="J23">
+        <v>0.231607677663708</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.132676333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.398029</v>
+      </c>
+      <c r="O23">
+        <v>0.01345290251278239</v>
+      </c>
+      <c r="P23">
+        <v>0.01623290242224319</v>
+      </c>
+      <c r="Q23">
+        <v>15.67121137041333</v>
+      </c>
+      <c r="R23">
+        <v>94.02726822248</v>
+      </c>
+      <c r="S23">
+        <v>0.004188633432311563</v>
+      </c>
+      <c r="T23">
+        <v>0.003759664831757325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.83556</v>
+      </c>
+      <c r="H24">
+        <v>27.67112</v>
+      </c>
+      <c r="I24">
+        <v>0.311355369470023</v>
+      </c>
+      <c r="J24">
+        <v>0.231607677663708</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.05956966666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.178709</v>
+      </c>
+      <c r="O24">
+        <v>0.0007075144900637483</v>
+      </c>
+      <c r="P24">
+        <v>0.0008537201298095625</v>
+      </c>
+      <c r="Q24">
+        <v>0.8241796973466666</v>
+      </c>
+      <c r="R24">
+        <v>4.94507818408</v>
+      </c>
+      <c r="S24">
+        <v>0.0002202884354591933</v>
+      </c>
+      <c r="T24">
+        <v>0.0001977281366399521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.83556</v>
+      </c>
+      <c r="H25">
+        <v>27.67112</v>
+      </c>
+      <c r="I25">
+        <v>0.311355369470023</v>
+      </c>
+      <c r="J25">
+        <v>0.231607677663708</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.02170333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.06511</v>
+      </c>
+      <c r="O25">
+        <v>0.0002577725153632478</v>
+      </c>
+      <c r="P25">
+        <v>0.0003110403933316207</v>
+      </c>
+      <c r="Q25">
+        <v>0.3002777705333333</v>
+      </c>
+      <c r="R25">
+        <v>1.8016666232</v>
+      </c>
+      <c r="S25">
+        <v>8.02588567601412E-05</v>
+      </c>
+      <c r="T25">
+        <v>7.203934315914295E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.83556</v>
+      </c>
+      <c r="H26">
+        <v>27.67112</v>
+      </c>
+      <c r="I26">
+        <v>0.311355369470023</v>
+      </c>
+      <c r="J26">
+        <v>0.231607677663708</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>43.257328</v>
+      </c>
+      <c r="N26">
+        <v>86.514656</v>
+      </c>
+      <c r="O26">
+        <v>0.513771321446155</v>
+      </c>
+      <c r="P26">
+        <v>0.4132936972997982</v>
+      </c>
+      <c r="Q26">
+        <v>598.48935698368</v>
+      </c>
+      <c r="R26">
+        <v>2393.95742793472</v>
+      </c>
+      <c r="S26">
+        <v>0.1599654596119696</v>
+      </c>
+      <c r="T26">
+        <v>0.09572199342465375</v>
       </c>
     </row>
   </sheetData>
